--- a/cea/databases/CH/Archetypes1/Archetypes_properties.xlsx
+++ b/cea/databases/CH/Archetypes1/Archetypes_properties.xlsx
@@ -1819,16 +1819,16 @@
         <v>1920</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.1447616100992855</v>
+        <v>0.1678764862005518</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G2" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H2" s="11" t="n">
         <v>0.9</v>
@@ -1848,16 +1848,16 @@
         <v>13</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G3" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H3" s="11" t="n">
         <v>0.9</v>
@@ -1877,16 +1877,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>0.9</v>
@@ -1906,16 +1906,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G5" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H5" s="11" t="n">
         <v>0.9</v>
@@ -1935,16 +1935,16 @@
         <v>20</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G6" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>0.9</v>
@@ -1964,16 +1964,16 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G7" s="11" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H7" s="11" t="n">
         <v>0.9</v>
@@ -1993,16 +1993,16 @@
         <v>1920</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>0.1447616100992855</v>
+        <v>0.1678764862005518</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G8" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H8" s="11" t="n">
         <v>0.9</v>
@@ -2022,16 +2022,16 @@
         <v>13</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G9" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H9" s="11" t="n">
         <v>0.9</v>
@@ -2051,16 +2051,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G10" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H10" s="11" t="n">
         <v>0.9</v>
@@ -2080,16 +2080,16 @@
         <v>18</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G11" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H11" s="11" t="n">
         <v>0.9</v>
@@ -2109,16 +2109,16 @@
         <v>20</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G12" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H12" s="11" t="n">
         <v>0.9</v>
@@ -2138,16 +2138,16 @@
         <v>22</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>40</v>
+        <v>39.34184521489664</v>
       </c>
       <c r="G13" s="11" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H13" s="11" t="n">
         <v>0.9</v>
@@ -2167,16 +2167,16 @@
         <v>1920</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1154150842628794</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H14" s="11" t="n">
         <v>0.9</v>
@@ -2196,16 +2196,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G15" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H15" s="11" t="n">
         <v>0.9</v>
@@ -2225,16 +2225,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G16" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H16" s="11" t="n">
         <v>0.9</v>
@@ -2254,16 +2254,16 @@
         <v>18</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>0.1247616100992855</v>
+        <v>0.1468919254254828</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G17" s="11" t="n">
-        <v>3.279795848620612</v>
+        <v>3.179000548699084</v>
       </c>
       <c r="H17" s="11" t="n">
         <v>0.9</v>
@@ -2283,16 +2283,16 @@
         <v>20</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G18" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H18" s="11" t="n">
         <v>0.9</v>
@@ -2312,16 +2312,16 @@
         <v>22</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G19" s="11" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H19" s="11" t="n">
         <v>0.9</v>
@@ -2341,16 +2341,16 @@
         <v>1920</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1154150842628794</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G20" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>0.9</v>
@@ -2370,16 +2370,16 @@
         <v>13</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G21" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H21" s="11" t="n">
         <v>0.9</v>
@@ -2399,16 +2399,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G22" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H22" s="11" t="n">
         <v>0.9</v>
@@ -2428,16 +2428,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>0.1247616100992855</v>
+        <v>0.1468919254254828</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G23" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H23" s="11" t="n">
         <v>0.9</v>
@@ -2457,16 +2457,16 @@
         <v>20</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G24" s="11" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H24" s="11" t="n">
         <v>0.9</v>
@@ -2486,16 +2486,16 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>40</v>
+        <v>59.01276782234496</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H25" s="11" t="n">
         <v>0.9</v>
@@ -2515,16 +2515,16 @@
         <v>43</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>0.1447616100992855</v>
+        <v>0.1678764862005518</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G26" s="18" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H26" s="11" t="n">
         <v>0.5</v>
@@ -2544,16 +2544,16 @@
         <v>13</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G27" s="18" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H27" s="11" t="n">
         <v>0.5</v>
@@ -2573,16 +2573,16 @@
         <v>16</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G28" s="18" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H28" s="11" t="n">
         <v>0.5</v>
@@ -2602,16 +2602,16 @@
         <v>18</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G29" s="18" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H29" s="11" t="n">
         <v>0.5</v>
@@ -2631,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G30" s="18" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H30" s="11" t="n">
         <v>0.5</v>
@@ -2660,16 +2660,16 @@
         <v>22</v>
       </c>
       <c r="D31" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G31" s="18" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H31" s="11" t="n">
         <v>0.5</v>
@@ -2689,16 +2689,16 @@
         <v>1920</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>0.1447616100992855</v>
+        <v>0.1678764862005518</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G32" s="18" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H32" s="11" t="n">
         <v>0.5</v>
@@ -2718,16 +2718,16 @@
         <v>13</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G33" s="18" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H33" s="11" t="n">
         <v>0.5</v>
@@ -2747,16 +2747,16 @@
         <v>16</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G34" s="18" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H34" s="11" t="n">
         <v>0.5</v>
@@ -2776,16 +2776,16 @@
         <v>18</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G35" s="18" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H35" s="11" t="n">
         <v>0.5</v>
@@ -2805,16 +2805,16 @@
         <v>20</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G36" s="18" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H36" s="11" t="n">
         <v>0.5</v>
@@ -2834,16 +2834,16 @@
         <v>22</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>9.746112868519917</v>
+        <v>9.343688238537952</v>
       </c>
       <c r="G37" s="18" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H37" s="11" t="n">
         <v>0.5</v>
@@ -2863,16 +2863,16 @@
         <v>1920</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>0.2547616100992855</v>
+        <v>0.2832915704634312</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G38" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H38" s="11" t="n">
         <v>0.5</v>
@@ -2892,16 +2892,16 @@
         <v>13</v>
       </c>
       <c r="D39" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G39" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H39" s="11" t="n">
         <v>0.5</v>
@@ -2921,16 +2921,16 @@
         <v>16</v>
       </c>
       <c r="D40" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G40" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H40" s="11" t="n">
         <v>0.5</v>
@@ -2950,16 +2950,16 @@
         <v>18</v>
       </c>
       <c r="D41" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G41" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H41" s="11" t="n">
         <v>0.5</v>
@@ -2979,16 +2979,16 @@
         <v>20</v>
       </c>
       <c r="D42" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G42" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H42" s="11" t="n">
         <v>0.5</v>
@@ -3008,16 +3008,16 @@
         <v>22</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H43" s="11" t="n">
         <v>0.5</v>
@@ -3037,16 +3037,16 @@
         <v>1920</v>
       </c>
       <c r="D44" s="7" t="n">
-        <v>0.2547616100992855</v>
+        <v>0.2832915704634312</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G44" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H44" s="11" t="n">
         <v>0.5</v>
@@ -3066,16 +3066,16 @@
         <v>13</v>
       </c>
       <c r="D45" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G45" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H45" s="11" t="n">
         <v>0.5</v>
@@ -3095,16 +3095,16 @@
         <v>16</v>
       </c>
       <c r="D46" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G46" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H46" s="11" t="n">
         <v>0.5</v>
@@ -3124,16 +3124,16 @@
         <v>18</v>
       </c>
       <c r="D47" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G47" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H47" s="11" t="n">
         <v>0.5</v>
@@ -3153,16 +3153,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G48" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H48" s="11" t="n">
         <v>0.5</v>
@@ -3182,16 +3182,16 @@
         <v>22</v>
       </c>
       <c r="D49" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="7" t="n">
-        <v>14.36269264834514</v>
+        <v>13.76964582521382</v>
       </c>
       <c r="G49" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H49" s="11" t="n">
         <v>0.5</v>
@@ -3211,16 +3211,16 @@
         <v>1920</v>
       </c>
       <c r="D50" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G50" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H50" s="11" t="n">
         <v>0.5</v>
@@ -3240,16 +3240,16 @@
         <v>13</v>
       </c>
       <c r="D51" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G51" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H51" s="11" t="n">
         <v>0.5</v>
@@ -3269,16 +3269,16 @@
         <v>16</v>
       </c>
       <c r="D52" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G52" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H52" s="11" t="n">
         <v>0.5</v>
@@ -3298,16 +3298,16 @@
         <v>18</v>
       </c>
       <c r="D53" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G53" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H53" s="11" t="n">
         <v>0.5</v>
@@ -3327,16 +3327,16 @@
         <v>20</v>
       </c>
       <c r="D54" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G54" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H54" s="11" t="n">
         <v>0.5</v>
@@ -3356,16 +3356,16 @@
         <v>22</v>
       </c>
       <c r="D55" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G55" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H55" s="11" t="n">
         <v>0.5</v>
@@ -3385,16 +3385,16 @@
         <v>1920</v>
       </c>
       <c r="D56" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G56" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H56" s="11" t="n">
         <v>0.5</v>
@@ -3414,16 +3414,16 @@
         <v>13</v>
       </c>
       <c r="D57" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G57" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H57" s="11" t="n">
         <v>0.5</v>
@@ -3443,16 +3443,16 @@
         <v>16</v>
       </c>
       <c r="D58" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G58" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H58" s="11" t="n">
         <v>0.5</v>
@@ -3472,16 +3472,16 @@
         <v>18</v>
       </c>
       <c r="D59" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H59" s="11" t="n">
         <v>0.5</v>
@@ -3501,16 +3501,16 @@
         <v>20</v>
       </c>
       <c r="D60" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G60" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H60" s="11" t="n">
         <v>0.5</v>
@@ -3530,16 +3530,16 @@
         <v>22</v>
       </c>
       <c r="D61" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G61" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H61" s="11" t="n">
         <v>0.5</v>
@@ -3559,16 +3559,16 @@
         <v>1920</v>
       </c>
       <c r="D62" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G62" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H62" s="11" t="n">
         <v>0.5</v>
@@ -3588,16 +3588,16 @@
         <v>13</v>
       </c>
       <c r="D63" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G63" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H63" s="11" t="n">
         <v>0.5</v>
@@ -3617,16 +3617,16 @@
         <v>16</v>
       </c>
       <c r="D64" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G64" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H64" s="11" t="n">
         <v>0.5</v>
@@ -3646,16 +3646,16 @@
         <v>18</v>
       </c>
       <c r="D65" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G65" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H65" s="11" t="n">
         <v>0.5</v>
@@ -3675,16 +3675,16 @@
         <v>20</v>
       </c>
       <c r="D66" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G66" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H66" s="11" t="n">
         <v>0.5</v>
@@ -3704,16 +3704,16 @@
         <v>22</v>
       </c>
       <c r="D67" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G67" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H67" s="11" t="n">
         <v>0.5</v>
@@ -3733,16 +3733,16 @@
         <v>1920</v>
       </c>
       <c r="D68" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G68" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H68" s="11" t="n">
         <v>0.5</v>
@@ -3762,16 +3762,16 @@
         <v>13</v>
       </c>
       <c r="D69" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G69" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H69" s="11" t="n">
         <v>0.5</v>
@@ -3791,16 +3791,16 @@
         <v>16</v>
       </c>
       <c r="D70" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G70" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H70" s="11" t="n">
         <v>0.5</v>
@@ -3820,16 +3820,16 @@
         <v>18</v>
       </c>
       <c r="D71" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G71" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H71" s="11" t="n">
         <v>0.5</v>
@@ -3849,16 +3849,16 @@
         <v>20</v>
       </c>
       <c r="D72" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G72" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H72" s="11" t="n">
         <v>0.5</v>
@@ -3878,16 +3878,16 @@
         <v>22</v>
       </c>
       <c r="D73" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>3.077719853216816</v>
+        <v>2.950638391117248</v>
       </c>
       <c r="G73" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H73" s="11" t="n">
         <v>0.5</v>
@@ -3907,16 +3907,16 @@
         <v>1920</v>
       </c>
       <c r="D74" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G74" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H74" s="11" t="n">
         <v>0.5</v>
@@ -3936,16 +3936,16 @@
         <v>13</v>
       </c>
       <c r="D75" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G75" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H75" s="11" t="n">
         <v>0.5</v>
@@ -3965,16 +3965,16 @@
         <v>16</v>
       </c>
       <c r="D76" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G76" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H76" s="11" t="n">
         <v>0.5</v>
@@ -3994,16 +3994,16 @@
         <v>18</v>
       </c>
       <c r="D77" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G77" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H77" s="11" t="n">
         <v>0.5</v>
@@ -4023,16 +4023,16 @@
         <v>20</v>
       </c>
       <c r="D78" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G78" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H78" s="11" t="n">
         <v>0.5</v>
@@ -4052,16 +4052,16 @@
         <v>22</v>
       </c>
       <c r="D79" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H79" s="11" t="n">
         <v>0.5</v>
@@ -4081,16 +4081,16 @@
         <v>1920</v>
       </c>
       <c r="D80" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G80" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H80" s="11" t="n">
         <v>0.5</v>
@@ -4110,16 +4110,16 @@
         <v>13</v>
       </c>
       <c r="D81" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G81" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H81" s="11" t="n">
         <v>0.5</v>
@@ -4139,16 +4139,16 @@
         <v>16</v>
       </c>
       <c r="D82" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G82" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H82" s="11" t="n">
         <v>0.5</v>
@@ -4168,16 +4168,16 @@
         <v>18</v>
       </c>
       <c r="D83" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G83" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H83" s="11" t="n">
         <v>0.5</v>
@@ -4197,16 +4197,16 @@
         <v>20</v>
       </c>
       <c r="D84" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G84" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H84" s="11" t="n">
         <v>0.5</v>
@@ -4226,16 +4226,16 @@
         <v>22</v>
       </c>
       <c r="D85" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>3</v>
+        <v>1.967092260744832</v>
       </c>
       <c r="G85" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H85" s="11" t="n">
         <v>0.5</v>
@@ -4255,16 +4255,16 @@
         <v>1920</v>
       </c>
       <c r="D86" s="7" t="n">
-        <v>0.2447616100992855</v>
+        <v>0.2727992900758966</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G86" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H86" s="11" t="n">
         <v>0.5</v>
@@ -4284,16 +4284,16 @@
         <v>13</v>
       </c>
       <c r="D87" s="7" t="n">
-        <v>0.2547616100992855</v>
+        <v>0.2832915704634312</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G87" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H87" s="11" t="n">
         <v>0.5</v>
@@ -4313,16 +4313,16 @@
         <v>16</v>
       </c>
       <c r="D88" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G88" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H88" s="11" t="n">
         <v>0.5</v>
@@ -4342,16 +4342,16 @@
         <v>18</v>
       </c>
       <c r="D89" s="7" t="n">
-        <v>0.2847616100992855</v>
+        <v>0.3147684116260346</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G89" s="15" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H89" s="11" t="n">
         <v>0.5</v>
@@ -4371,16 +4371,16 @@
         <v>20</v>
       </c>
       <c r="D90" s="7" t="n">
-        <v>0.2847616100992855</v>
+        <v>0.3147684116260346</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G90" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H90" s="11" t="n">
         <v>0.5</v>
@@ -4400,16 +4400,16 @@
         <v>22</v>
       </c>
       <c r="D91" s="7" t="n">
-        <v>0.2847616100992855</v>
+        <v>0.3147684116260346</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G91" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H91" s="11" t="n">
         <v>0.5</v>
@@ -4429,16 +4429,16 @@
         <v>1920</v>
       </c>
       <c r="D92" s="7" t="n">
-        <v>0.2447616100992855</v>
+        <v>0.2727992900758966</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G92" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H92" s="11" t="n">
         <v>0.5</v>
@@ -4458,16 +4458,16 @@
         <v>13</v>
       </c>
       <c r="D93" s="7" t="n">
-        <v>0.2547616100992855</v>
+        <v>0.2832915704634312</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G93" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H93" s="11" t="n">
         <v>0.5</v>
@@ -4487,16 +4487,16 @@
         <v>16</v>
       </c>
       <c r="D94" s="7" t="n">
-        <v>0.3847616100992855</v>
+        <v>0.4196912155013795</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G94" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H94" s="11" t="n">
         <v>0.5</v>
@@ -4516,16 +4516,16 @@
         <v>18</v>
       </c>
       <c r="D95" s="7" t="n">
-        <v>0.2847616100992855</v>
+        <v>0.3147684116260346</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G95" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H95" s="11" t="n">
         <v>0.5</v>
@@ -4545,16 +4545,16 @@
         <v>20</v>
       </c>
       <c r="D96" s="7" t="n">
-        <v>0.2847616100992855</v>
+        <v>0.3147684116260346</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G96" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H96" s="11" t="n">
         <v>0.5</v>
@@ -4574,16 +4574,16 @@
         <v>22</v>
       </c>
       <c r="D97" s="7" t="n">
-        <v>0.2847616100992855</v>
+        <v>0.3147684116260346</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G97" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H97" s="11" t="n">
         <v>0.5</v>
@@ -4603,16 +4603,16 @@
         <v>1920</v>
       </c>
       <c r="D98" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G98" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H98" s="11" t="n">
         <v>0.5</v>
@@ -4632,16 +4632,16 @@
         <v>13</v>
       </c>
       <c r="D99" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G99" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H99" s="11" t="n">
         <v>0.5</v>
@@ -4661,16 +4661,16 @@
         <v>16</v>
       </c>
       <c r="D100" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G100" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H100" s="11" t="n">
         <v>0.5</v>
@@ -4690,16 +4690,16 @@
         <v>18</v>
       </c>
       <c r="D101" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G101" s="15" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H101" s="11" t="n">
         <v>0.5</v>
@@ -4719,16 +4719,16 @@
         <v>20</v>
       </c>
       <c r="D102" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G102" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H102" s="11" t="n">
         <v>0.5</v>
@@ -4748,16 +4748,16 @@
         <v>22</v>
       </c>
       <c r="D103" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G103" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H103" s="11" t="n">
         <v>0.5</v>
@@ -4777,16 +4777,16 @@
         <v>1920</v>
       </c>
       <c r="D104" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G104" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H104" s="11" t="n">
         <v>0.5</v>
@@ -4806,16 +4806,16 @@
         <v>13</v>
       </c>
       <c r="D105" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G105" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H105" s="11" t="n">
         <v>0.5</v>
@@ -4835,16 +4835,16 @@
         <v>16</v>
       </c>
       <c r="D106" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G106" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H106" s="11" t="n">
         <v>0.5</v>
@@ -4864,16 +4864,16 @@
         <v>18</v>
       </c>
       <c r="D107" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G107" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H107" s="11" t="n">
         <v>0.5</v>
@@ -4893,16 +4893,16 @@
         <v>20</v>
       </c>
       <c r="D108" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G108" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H108" s="11" t="n">
         <v>0.5</v>
@@ -4922,16 +4922,16 @@
         <v>22</v>
       </c>
       <c r="D109" s="7" t="n">
-        <v>0.2947616100992855</v>
+        <v>0.3252606920135691</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="7" t="n">
-        <v>10.25906617738939</v>
+        <v>9.835461303724159</v>
       </c>
       <c r="G109" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H109" s="11" t="n">
         <v>0.5</v>
@@ -4951,16 +4951,16 @@
         <v>1920</v>
       </c>
       <c r="D110" s="7" t="n">
-        <v>0.1447616100992855</v>
+        <v>0.1678764862005518</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G110" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H110" s="11" t="n">
         <v>0.5</v>
@@ -4980,16 +4980,16 @@
         <v>13</v>
       </c>
       <c r="D111" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G111" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H111" s="11" t="n">
         <v>0.5</v>
@@ -5009,16 +5009,16 @@
         <v>16</v>
       </c>
       <c r="D112" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G112" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H112" s="11" t="n">
         <v>0.5</v>
@@ -5038,16 +5038,16 @@
         <v>18</v>
       </c>
       <c r="D113" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G113" s="15" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H113" s="11" t="n">
         <v>0.5</v>
@@ -5067,16 +5067,16 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G114" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H114" s="11" t="n">
         <v>0.5</v>
@@ -5096,16 +5096,16 @@
         <v>22</v>
       </c>
       <c r="D115" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G115" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H115" s="11" t="n">
         <v>0.5</v>
@@ -5125,16 +5125,16 @@
         <v>1920</v>
       </c>
       <c r="D116" s="7" t="n">
-        <v>0.1447616100992855</v>
+        <v>0.1678764862005518</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G116" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H116" s="11" t="n">
         <v>0.5</v>
@@ -5154,16 +5154,16 @@
         <v>13</v>
       </c>
       <c r="D117" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G117" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H117" s="11" t="n">
         <v>0.5</v>
@@ -5183,16 +5183,16 @@
         <v>16</v>
       </c>
       <c r="D118" s="7" t="n">
-        <v>0.2347616100992855</v>
+        <v>0.2623070096883622</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G118" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H118" s="11" t="n">
         <v>0.5</v>
@@ -5212,16 +5212,16 @@
         <v>18</v>
       </c>
       <c r="D119" s="7" t="n">
-        <v>0.1947616100992854</v>
+        <v>0.2203378881382242</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G119" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H119" s="11" t="n">
         <v>0.5</v>
@@ -5241,16 +5241,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G120" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H120" s="11" t="n">
         <v>0.5</v>
@@ -5270,16 +5270,16 @@
         <v>22</v>
       </c>
       <c r="D121" s="7" t="n">
-        <v>0.1347616100992854</v>
+        <v>0.1573842058130173</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="7" t="n">
-        <v>8.207252941911509</v>
+        <v>7.868369042979328</v>
       </c>
       <c r="G121" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H121" s="11" t="n">
         <v>0.5</v>
@@ -5299,16 +5299,16 @@
         <v>1920</v>
       </c>
       <c r="D122" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G122" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H122" s="11" t="n">
         <v>0.5</v>
@@ -5328,16 +5328,16 @@
         <v>13</v>
       </c>
       <c r="D123" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G123" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H123" s="11" t="n">
         <v>0.5</v>
@@ -5357,16 +5357,16 @@
         <v>16</v>
       </c>
       <c r="D124" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G124" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H124" s="11" t="n">
         <v>0.5</v>
@@ -5386,16 +5386,16 @@
         <v>18</v>
       </c>
       <c r="D125" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G125" s="15" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H125" s="11" t="n">
         <v>0.5</v>
@@ -5415,16 +5415,16 @@
         <v>20</v>
       </c>
       <c r="D126" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G126" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H126" s="11" t="n">
         <v>0.5</v>
@@ -5444,16 +5444,16 @@
         <v>22</v>
       </c>
       <c r="D127" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G127" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H127" s="11" t="n">
         <v>0.5</v>
@@ -5473,16 +5473,16 @@
         <v>1920</v>
       </c>
       <c r="D128" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G128" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H128" s="11" t="n">
         <v>0.5</v>
@@ -5502,16 +5502,16 @@
         <v>13</v>
       </c>
       <c r="D129" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G129" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H129" s="11" t="n">
         <v>0.5</v>
@@ -5531,16 +5531,16 @@
         <v>16</v>
       </c>
       <c r="D130" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G130" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H130" s="11" t="n">
         <v>0.5</v>
@@ -5560,16 +5560,16 @@
         <v>18</v>
       </c>
       <c r="D131" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G131" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H131" s="11" t="n">
         <v>0.5</v>
@@ -5589,16 +5589,16 @@
         <v>20</v>
       </c>
       <c r="D132" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G132" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H132" s="11" t="n">
         <v>0.5</v>
@@ -5618,16 +5618,16 @@
         <v>22</v>
       </c>
       <c r="D133" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>5.129533088694693</v>
+        <v>4.91773065186208</v>
       </c>
       <c r="G133" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H133" s="11" t="n">
         <v>0.5</v>
@@ -5647,16 +5647,16 @@
         <v>1920</v>
       </c>
       <c r="D134" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G134" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H134" s="11" t="n">
         <v>0.5</v>
@@ -5676,16 +5676,16 @@
         <v>13</v>
       </c>
       <c r="D135" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G135" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H135" s="11" t="n">
         <v>0.5</v>
@@ -5705,16 +5705,16 @@
         <v>16</v>
       </c>
       <c r="D136" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G136" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H136" s="11" t="n">
         <v>0.5</v>
@@ -5734,16 +5734,16 @@
         <v>18</v>
       </c>
       <c r="D137" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G137" s="15" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H137" s="11" t="n">
         <v>0.5</v>
@@ -5763,16 +5763,16 @@
         <v>20</v>
       </c>
       <c r="D138" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G138" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H138" s="11" t="n">
         <v>0.5</v>
@@ -5792,16 +5792,16 @@
         <v>22</v>
       </c>
       <c r="D139" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G139" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H139" s="11" t="n">
         <v>0.5</v>
@@ -5821,16 +5821,16 @@
         <v>1920</v>
       </c>
       <c r="D140" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G140" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H140" s="11" t="n">
         <v>0.5</v>
@@ -5850,16 +5850,16 @@
         <v>13</v>
       </c>
       <c r="D141" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G141" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H141" s="11" t="n">
         <v>0.5</v>
@@ -5879,16 +5879,16 @@
         <v>16</v>
       </c>
       <c r="D142" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G142" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H142" s="11" t="n">
         <v>0.5</v>
@@ -5908,16 +5908,16 @@
         <v>18</v>
       </c>
       <c r="D143" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G143" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H143" s="11" t="n">
         <v>0.5</v>
@@ -5937,16 +5937,16 @@
         <v>20</v>
       </c>
       <c r="D144" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G144" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H144" s="11" t="n">
         <v>0.5</v>
@@ -5966,16 +5966,16 @@
         <v>22</v>
       </c>
       <c r="D145" s="7" t="n">
-        <v>0.1847616100992855</v>
+        <v>0.2098456077506897</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>20.51813235477877</v>
+        <v>19.67092260744832</v>
       </c>
       <c r="G145" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H145" s="11" t="n">
         <v>0.5</v>
@@ -5995,16 +5995,16 @@
         <v>1920</v>
       </c>
       <c r="D146" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G146" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H146" s="11" t="n">
         <v>0.5</v>
@@ -6024,16 +6024,16 @@
         <v>13</v>
       </c>
       <c r="D147" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G147" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H147" s="11" t="n">
         <v>0.5</v>
@@ -6053,16 +6053,16 @@
         <v>16</v>
       </c>
       <c r="D148" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G148" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H148" s="11" t="n">
         <v>0.5</v>
@@ -6082,16 +6082,16 @@
         <v>18</v>
       </c>
       <c r="D149" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G149" s="15" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H149" s="11" t="n">
         <v>0.5</v>
@@ -6111,16 +6111,16 @@
         <v>20</v>
       </c>
       <c r="D150" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G150" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H150" s="11" t="n">
         <v>0.5</v>
@@ -6140,16 +6140,16 @@
         <v>22</v>
       </c>
       <c r="D151" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G151" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H151" s="11" t="n">
         <v>0.5</v>
@@ -6169,16 +6169,16 @@
         <v>1920</v>
       </c>
       <c r="D152" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G152" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H152" s="11" t="n">
         <v>0.5</v>
@@ -6198,16 +6198,16 @@
         <v>13</v>
       </c>
       <c r="D153" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G153" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H153" s="11" t="n">
         <v>0.5</v>
@@ -6227,16 +6227,16 @@
         <v>16</v>
       </c>
       <c r="D154" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G154" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H154" s="11" t="n">
         <v>0.5</v>
@@ -6256,16 +6256,16 @@
         <v>18</v>
       </c>
       <c r="D155" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G155" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H155" s="11" t="n">
         <v>0.5</v>
@@ -6285,16 +6285,16 @@
         <v>20</v>
       </c>
       <c r="D156" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G156" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H156" s="11" t="n">
         <v>0.5</v>
@@ -6314,16 +6314,16 @@
         <v>22</v>
       </c>
       <c r="D157" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G157" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H157" s="11" t="n">
         <v>0.5</v>
@@ -6343,16 +6343,16 @@
         <v>1920</v>
       </c>
       <c r="D158" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G158" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H158" s="11" t="n">
         <v>0.5</v>
@@ -6372,16 +6372,16 @@
         <v>13</v>
       </c>
       <c r="D159" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G159" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H159" s="11" t="n">
         <v>0.5</v>
@@ -6401,16 +6401,16 @@
         <v>16</v>
       </c>
       <c r="D160" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G160" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H160" s="11" t="n">
         <v>0.5</v>
@@ -6430,16 +6430,16 @@
         <v>18</v>
       </c>
       <c r="D161" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F161" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G161" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H161" s="11" t="n">
         <v>0.5</v>
@@ -6459,16 +6459,16 @@
         <v>20</v>
       </c>
       <c r="D162" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G162" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H162" s="11" t="n">
         <v>0.5</v>
@@ -6488,16 +6488,16 @@
         <v>22</v>
       </c>
       <c r="D163" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G163" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H163" s="11" t="n">
         <v>0.5</v>
@@ -6517,16 +6517,16 @@
         <v>1920</v>
       </c>
       <c r="D164" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F164" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G164" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H164" s="11" t="n">
         <v>0.5</v>
@@ -6546,16 +6546,16 @@
         <v>13</v>
       </c>
       <c r="D165" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G165" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H165" s="11" t="n">
         <v>0.5</v>
@@ -6575,16 +6575,16 @@
         <v>16</v>
       </c>
       <c r="D166" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G166" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H166" s="11" t="n">
         <v>0.5</v>
@@ -6604,16 +6604,16 @@
         <v>18</v>
       </c>
       <c r="D167" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G167" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H167" s="11" t="n">
         <v>0.5</v>
@@ -6633,16 +6633,16 @@
         <v>20</v>
       </c>
       <c r="D168" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G168" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H168" s="11" t="n">
         <v>0.5</v>
@@ -6662,16 +6662,16 @@
         <v>22</v>
       </c>
       <c r="D169" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G169" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H169" s="11" t="n">
         <v>0.5</v>
@@ -6691,16 +6691,16 @@
         <v>1920</v>
       </c>
       <c r="D170" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G170" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H170" s="11" t="n">
         <v>0.5</v>
@@ -6720,16 +6720,16 @@
         <v>13</v>
       </c>
       <c r="D171" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G171" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H171" s="11" t="n">
         <v>0.5</v>
@@ -6749,16 +6749,16 @@
         <v>16</v>
       </c>
       <c r="D172" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G172" s="15" t="n">
-        <v>6</v>
+        <v>6.358001097398168</v>
       </c>
       <c r="H172" s="11" t="n">
         <v>0.5</v>
@@ -6778,16 +6778,16 @@
         <v>18</v>
       </c>
       <c r="D173" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G173" s="15" t="n">
-        <v>4.279795848620612</v>
+        <v>4.238667398265445</v>
       </c>
       <c r="H173" s="11" t="n">
         <v>0.5</v>
@@ -6807,16 +6807,16 @@
         <v>20</v>
       </c>
       <c r="D174" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G174" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H174" s="11" t="n">
         <v>0.5</v>
@@ -6836,16 +6836,16 @@
         <v>22</v>
       </c>
       <c r="D175" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G175" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H175" s="11" t="n">
         <v>0.5</v>
@@ -6865,16 +6865,16 @@
         <v>1920</v>
       </c>
       <c r="D176" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G176" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H176" s="11" t="n">
         <v>0.5</v>
@@ -6894,16 +6894,16 @@
         <v>13</v>
       </c>
       <c r="D177" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G177" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H177" s="11" t="n">
         <v>0.5</v>
@@ -6923,16 +6923,16 @@
         <v>16</v>
       </c>
       <c r="D178" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G178" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H178" s="11" t="n">
         <v>0.5</v>
@@ -6952,16 +6952,16 @@
         <v>18</v>
       </c>
       <c r="D179" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G179" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H179" s="11" t="n">
         <v>0.5</v>
@@ -6981,16 +6981,16 @@
         <v>20</v>
       </c>
       <c r="D180" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G180" s="15" t="n">
-        <v>2.279795848620612</v>
+        <v>2.119333699132723</v>
       </c>
       <c r="H180" s="11" t="n">
         <v>0.5</v>
@@ -7010,16 +7010,16 @@
         <v>22</v>
       </c>
       <c r="D181" s="7" t="n">
-        <v>0.1</v>
+        <v>0.1049228038753449</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G181" s="15" t="n">
-        <v>1.279795848620612</v>
+        <v>1.059666849566361</v>
       </c>
       <c r="H181" s="11" t="n">
         <v>0.5</v>
@@ -11305,7 +11305,7 @@
         <v>205</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H2" s="7" t="n">
         <v>0.3</v>
@@ -11314,7 +11314,7 @@
         <v>0.35</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11337,7 +11337,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H3" s="7" t="n">
         <v>0.3</v>
@@ -11346,7 +11346,7 @@
         <v>0.35</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11369,7 +11369,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>0.3</v>
@@ -11378,7 +11378,7 @@
         <v>0.35</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11401,7 +11401,7 @@
         <v>205</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>0.3</v>
@@ -11410,7 +11410,7 @@
         <v>0.35</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11433,7 +11433,7 @@
         <v>205</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>0.2</v>
@@ -11442,7 +11442,7 @@
         <v>0.28</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11465,7 +11465,7 @@
         <v>205</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>0.09</v>
@@ -11474,7 +11474,7 @@
         <v>0.15</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11497,7 +11497,7 @@
         <v>205</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>0.2</v>
@@ -11506,7 +11506,7 @@
         <v>0.28</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11529,7 +11529,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>0.2</v>
@@ -11538,7 +11538,7 @@
         <v>0.28</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11561,7 +11561,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0.2</v>
@@ -11570,7 +11570,7 @@
         <v>0.28</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11593,7 +11593,7 @@
         <v>205</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>0.2</v>
@@ -11602,7 +11602,7 @@
         <v>0.28</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11625,7 +11625,7 @@
         <v>205</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>0.2</v>
@@ -11634,7 +11634,7 @@
         <v>0.28</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11657,7 +11657,7 @@
         <v>205</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0.15</v>
@@ -11666,7 +11666,7 @@
         <v>0.2</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11689,7 +11689,7 @@
         <v>205</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0.3</v>
@@ -11698,7 +11698,7 @@
         <v>0.35</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11721,7 +11721,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0.3</v>
@@ -11730,7 +11730,7 @@
         <v>0.35</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11753,7 +11753,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0.3</v>
@@ -11762,7 +11762,7 @@
         <v>0.35</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11785,7 +11785,7 @@
         <v>205</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2938220238763391</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0.3</v>
@@ -11794,7 +11794,7 @@
         <v>0.35</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>1.020230037548301</v>
+        <v>1.516998108150287</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11817,7 +11817,7 @@
         <v>205</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0.2</v>
@@ -11826,7 +11826,7 @@
         <v>0.28</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11849,7 +11849,7 @@
         <v>205</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0.09</v>
@@ -11858,7 +11858,7 @@
         <v>0.15</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11881,7 +11881,7 @@
         <v>205</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0.2</v>
@@ -11890,7 +11890,7 @@
         <v>0.28</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11913,7 +11913,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0.2</v>
@@ -11922,7 +11922,7 @@
         <v>0.28</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11945,7 +11945,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0.2</v>
@@ -11954,7 +11954,7 @@
         <v>0.28</v>
       </c>
       <c r="J22" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11977,7 +11977,7 @@
         <v>205</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0.2</v>
@@ -11986,7 +11986,7 @@
         <v>0.28</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -12009,7 +12009,7 @@
         <v>205</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0.2</v>
@@ -12018,7 +12018,7 @@
         <v>0.28</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -12041,7 +12041,7 @@
         <v>205</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0.15</v>
@@ -12050,7 +12050,7 @@
         <v>0.2</v>
       </c>
       <c r="J25" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -12073,7 +12073,7 @@
         <v>205</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>1</v>
@@ -12082,7 +12082,7 @@
         <v>1.2</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -12105,7 +12105,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>1</v>
@@ -12114,7 +12114,7 @@
         <v>1.2</v>
       </c>
       <c r="J27" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -12137,7 +12137,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>0.3794627669248015</v>
+        <v>1.175288095505356</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0.45</v>
@@ -12146,7 +12146,7 @@
         <v>0.9</v>
       </c>
       <c r="J28" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -12169,7 +12169,7 @@
         <v>205</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>0.11</v>
+        <v>0.8324957343162942</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0.3</v>
@@ -12178,7 +12178,7 @@
         <v>0.4</v>
       </c>
       <c r="J29" s="7" t="n">
-        <v>1.420230037548301</v>
+        <v>1.921530936990364</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -12201,7 +12201,7 @@
         <v>205</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>0.2</v>
@@ -12210,7 +12210,7 @@
         <v>0.28</v>
       </c>
       <c r="J30" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -12233,7 +12233,7 @@
         <v>205</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0.09</v>
@@ -12242,7 +12242,7 @@
         <v>0.15</v>
       </c>
       <c r="J31" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -12265,7 +12265,7 @@
         <v>205</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0.2</v>
@@ -12274,7 +12274,7 @@
         <v>0.28</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -12297,7 +12297,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H33" s="7" t="n">
         <v>0.2</v>
@@ -12306,7 +12306,7 @@
         <v>0.28</v>
       </c>
       <c r="J33" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -12329,7 +12329,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H34" s="7" t="n">
         <v>0.2</v>
@@ -12338,7 +12338,7 @@
         <v>0.28</v>
       </c>
       <c r="J34" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -12361,7 +12361,7 @@
         <v>205</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H35" s="7" t="n">
         <v>0.2</v>
@@ -12370,7 +12370,7 @@
         <v>0.28</v>
       </c>
       <c r="J35" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12393,7 +12393,7 @@
         <v>205</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H36" s="7" t="n">
         <v>0.2</v>
@@ -12402,7 +12402,7 @@
         <v>0.28</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12425,7 +12425,7 @@
         <v>205</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H37" s="7" t="n">
         <v>0.15</v>
@@ -12434,7 +12434,7 @@
         <v>0.2</v>
       </c>
       <c r="J37" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -12457,7 +12457,7 @@
         <v>205</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>1</v>
@@ -12466,7 +12466,7 @@
         <v>1.2</v>
       </c>
       <c r="J38" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12489,7 +12489,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H39" s="7" t="n">
         <v>0.4</v>
@@ -12498,7 +12498,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="7" t="n">
-        <v>2.220230037548301</v>
+        <v>2.730596594670518</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12521,7 +12521,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0.4</v>
@@ -12530,7 +12530,7 @@
         <v>1.79</v>
       </c>
       <c r="J40" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12553,7 +12553,7 @@
         <v>205</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2644398214887053</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0.27</v>
@@ -12562,7 +12562,7 @@
         <v>0.4</v>
       </c>
       <c r="J41" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12585,7 +12585,7 @@
         <v>205</v>
       </c>
       <c r="G42" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H42" s="7" t="n">
         <v>0.2</v>
@@ -12594,7 +12594,7 @@
         <v>0.28</v>
       </c>
       <c r="J42" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12617,7 +12617,7 @@
         <v>205</v>
       </c>
       <c r="G43" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H43" s="7" t="n">
         <v>0.09</v>
@@ -12626,7 +12626,7 @@
         <v>0.15</v>
       </c>
       <c r="J43" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12649,7 +12649,7 @@
         <v>205</v>
       </c>
       <c r="G44" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>0.2</v>
@@ -12658,7 +12658,7 @@
         <v>0.28</v>
       </c>
       <c r="J44" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12681,7 +12681,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H45" s="7" t="n">
         <v>0.2</v>
@@ -12690,7 +12690,7 @@
         <v>0.28</v>
       </c>
       <c r="J45" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12713,7 +12713,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H46" s="7" t="n">
         <v>0.2</v>
@@ -12722,7 +12722,7 @@
         <v>0.28</v>
       </c>
       <c r="J46" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12745,7 +12745,7 @@
         <v>205</v>
       </c>
       <c r="G47" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H47" s="7" t="n">
         <v>0.2</v>
@@ -12754,7 +12754,7 @@
         <v>0.28</v>
       </c>
       <c r="J47" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12777,7 +12777,7 @@
         <v>205</v>
       </c>
       <c r="G48" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>0.2</v>
@@ -12786,7 +12786,7 @@
         <v>0.28</v>
       </c>
       <c r="J48" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -12809,7 +12809,7 @@
         <v>205</v>
       </c>
       <c r="G49" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H49" s="7" t="n">
         <v>0.15</v>
@@ -12818,7 +12818,7 @@
         <v>0.2</v>
       </c>
       <c r="J49" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -12841,7 +12841,7 @@
         <v>205</v>
       </c>
       <c r="G50" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H50" s="7" t="n">
         <v>1</v>
@@ -12850,7 +12850,7 @@
         <v>1.2</v>
       </c>
       <c r="J50" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -12873,7 +12873,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H51" s="7" t="n">
         <v>0.4</v>
@@ -12882,7 +12882,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="7" t="n">
-        <v>2.220230037548301</v>
+        <v>2.730596594670518</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -12905,7 +12905,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H52" s="7" t="n">
         <v>0.4</v>
@@ -12914,7 +12914,7 @@
         <v>1.79</v>
       </c>
       <c r="J52" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -12937,7 +12937,7 @@
         <v>205</v>
       </c>
       <c r="G53" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2644398214887053</v>
       </c>
       <c r="H53" s="7" t="n">
         <v>0.27</v>
@@ -12946,7 +12946,7 @@
         <v>0.4</v>
       </c>
       <c r="J53" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -12969,7 +12969,7 @@
         <v>205</v>
       </c>
       <c r="G54" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H54" s="7" t="n">
         <v>0.2</v>
@@ -12978,7 +12978,7 @@
         <v>0.28</v>
       </c>
       <c r="J54" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -13001,7 +13001,7 @@
         <v>205</v>
       </c>
       <c r="G55" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H55" s="7" t="n">
         <v>0.09</v>
@@ -13010,7 +13010,7 @@
         <v>0.15</v>
       </c>
       <c r="J55" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -13033,7 +13033,7 @@
         <v>205</v>
       </c>
       <c r="G56" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H56" s="7" t="n">
         <v>0.2</v>
@@ -13042,7 +13042,7 @@
         <v>0.28</v>
       </c>
       <c r="J56" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -13065,7 +13065,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H57" s="7" t="n">
         <v>0.2</v>
@@ -13074,7 +13074,7 @@
         <v>0.28</v>
       </c>
       <c r="J57" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -13097,7 +13097,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H58" s="7" t="n">
         <v>0.2</v>
@@ -13106,7 +13106,7 @@
         <v>0.28</v>
       </c>
       <c r="J58" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -13129,7 +13129,7 @@
         <v>205</v>
       </c>
       <c r="G59" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H59" s="7" t="n">
         <v>0.2</v>
@@ -13138,7 +13138,7 @@
         <v>0.28</v>
       </c>
       <c r="J59" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -13161,7 +13161,7 @@
         <v>205</v>
       </c>
       <c r="G60" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H60" s="7" t="n">
         <v>0.2</v>
@@ -13170,7 +13170,7 @@
         <v>0.28</v>
       </c>
       <c r="J60" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -13193,7 +13193,7 @@
         <v>205</v>
       </c>
       <c r="G61" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H61" s="7" t="n">
         <v>0.15</v>
@@ -13202,7 +13202,7 @@
         <v>0.2</v>
       </c>
       <c r="J61" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -13225,7 +13225,7 @@
         <v>205</v>
       </c>
       <c r="G62" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H62" s="7" t="n">
         <v>1</v>
@@ -13234,7 +13234,7 @@
         <v>1.2</v>
       </c>
       <c r="J62" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -13257,7 +13257,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H63" s="7" t="n">
         <v>0.4</v>
@@ -13266,7 +13266,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="7" t="n">
-        <v>2.220230037548301</v>
+        <v>2.730596594670518</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -13289,7 +13289,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H64" s="7" t="n">
         <v>0.4</v>
@@ -13298,7 +13298,7 @@
         <v>1.79</v>
       </c>
       <c r="J64" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -13321,7 +13321,7 @@
         <v>205</v>
       </c>
       <c r="G65" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2644398214887053</v>
       </c>
       <c r="H65" s="7" t="n">
         <v>0.27</v>
@@ -13330,7 +13330,7 @@
         <v>0.4</v>
       </c>
       <c r="J65" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -13353,7 +13353,7 @@
         <v>205</v>
       </c>
       <c r="G66" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H66" s="7" t="n">
         <v>0.2</v>
@@ -13362,7 +13362,7 @@
         <v>0.28</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -13385,7 +13385,7 @@
         <v>205</v>
       </c>
       <c r="G67" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H67" s="7" t="n">
         <v>0.09</v>
@@ -13394,7 +13394,7 @@
         <v>0.15</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -13417,7 +13417,7 @@
         <v>205</v>
       </c>
       <c r="G68" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H68" s="7" t="n">
         <v>0.2</v>
@@ -13426,7 +13426,7 @@
         <v>0.28</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -13449,7 +13449,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H69" s="7" t="n">
         <v>0.2</v>
@@ -13458,7 +13458,7 @@
         <v>0.28</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -13481,7 +13481,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H70" s="7" t="n">
         <v>0.2</v>
@@ -13490,7 +13490,7 @@
         <v>0.28</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -13513,7 +13513,7 @@
         <v>205</v>
       </c>
       <c r="G71" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H71" s="7" t="n">
         <v>0.2</v>
@@ -13522,7 +13522,7 @@
         <v>0.28</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -13545,7 +13545,7 @@
         <v>205</v>
       </c>
       <c r="G72" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H72" s="7" t="n">
         <v>0.2</v>
@@ -13554,7 +13554,7 @@
         <v>0.28</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -13577,7 +13577,7 @@
         <v>205</v>
       </c>
       <c r="G73" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H73" s="7" t="n">
         <v>0.15</v>
@@ -13586,7 +13586,7 @@
         <v>0.2</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -13609,7 +13609,7 @@
         <v>205</v>
       </c>
       <c r="G74" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H74" s="7" t="n">
         <v>1</v>
@@ -13618,7 +13618,7 @@
         <v>1.2</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -13641,7 +13641,7 @@
         <v>11</v>
       </c>
       <c r="G75" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H75" s="7" t="n">
         <v>0.4</v>
@@ -13650,7 +13650,7 @@
         <v>2</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>2.220230037548301</v>
+        <v>2.730596594670518</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -13673,7 +13673,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H76" s="7" t="n">
         <v>0.4</v>
@@ -13682,7 +13682,7 @@
         <v>1.79</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -13705,7 +13705,7 @@
         <v>205</v>
       </c>
       <c r="G77" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2644398214887053</v>
       </c>
       <c r="H77" s="7" t="n">
         <v>0.27</v>
@@ -13714,7 +13714,7 @@
         <v>0.4</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -13737,7 +13737,7 @@
         <v>205</v>
       </c>
       <c r="G78" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H78" s="7" t="n">
         <v>0.2</v>
@@ -13746,7 +13746,7 @@
         <v>0.28</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -13769,7 +13769,7 @@
         <v>205</v>
       </c>
       <c r="G79" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H79" s="7" t="n">
         <v>0.09</v>
@@ -13778,7 +13778,7 @@
         <v>0.15</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -13801,7 +13801,7 @@
         <v>205</v>
       </c>
       <c r="G80" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H80" s="7" t="n">
         <v>0.2</v>
@@ -13810,7 +13810,7 @@
         <v>0.28</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -13833,7 +13833,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H81" s="7" t="n">
         <v>0.2</v>
@@ -13842,7 +13842,7 @@
         <v>0.28</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -13865,7 +13865,7 @@
         <v>11</v>
       </c>
       <c r="G82" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H82" s="7" t="n">
         <v>0.2</v>
@@ -13874,7 +13874,7 @@
         <v>0.28</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -13897,7 +13897,7 @@
         <v>205</v>
       </c>
       <c r="G83" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H83" s="7" t="n">
         <v>0.2</v>
@@ -13906,7 +13906,7 @@
         <v>0.28</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -13929,7 +13929,7 @@
         <v>205</v>
       </c>
       <c r="G84" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H84" s="7" t="n">
         <v>0.2</v>
@@ -13938,7 +13938,7 @@
         <v>0.28</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -13961,7 +13961,7 @@
         <v>205</v>
       </c>
       <c r="G85" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H85" s="7" t="n">
         <v>0.15</v>
@@ -13970,7 +13970,7 @@
         <v>0.2</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -13993,7 +13993,7 @@
         <v>205</v>
       </c>
       <c r="G86" s="7" t="n">
-        <v>2.879462766924802</v>
+        <v>3.623804961141516</v>
       </c>
       <c r="H86" s="7" t="n">
         <v>0.27</v>
@@ -14002,7 +14002,7 @@
         <v>2.32</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>3.8202300375483</v>
+        <v>4.348727910030824</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -14025,7 +14025,7 @@
         <v>11</v>
       </c>
       <c r="G87" s="7" t="n">
-        <v>2.879462766924802</v>
+        <v>3.623804961141516</v>
       </c>
       <c r="H87" s="7" t="n">
         <v>0.27</v>
@@ -14034,7 +14034,7 @@
         <v>2.32</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>3.8202300375483</v>
+        <v>4.348727910030824</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -14057,7 +14057,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="7" t="n">
-        <v>0.11</v>
+        <v>0.7198639584970309</v>
       </c>
       <c r="H88" s="7" t="n">
         <v>0.99</v>
@@ -14066,7 +14066,7 @@
         <v>1.79</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -14089,7 +14089,7 @@
         <v>205</v>
       </c>
       <c r="G89" s="7" t="n">
-        <v>0.11</v>
+        <v>0.3623804961141516</v>
       </c>
       <c r="H89" s="7" t="n">
         <v>0.226</v>
@@ -14098,7 +14098,7 @@
         <v>0.47</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>2.0702300375483</v>
+        <v>2.578896783855489</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -14121,7 +14121,7 @@
         <v>205</v>
       </c>
       <c r="G90" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H90" s="7" t="n">
         <v>0.2</v>
@@ -14130,7 +14130,7 @@
         <v>0.28</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -14153,7 +14153,7 @@
         <v>205</v>
       </c>
       <c r="G91" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H91" s="7" t="n">
         <v>0.09</v>
@@ -14162,7 +14162,7 @@
         <v>0.15</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -14185,7 +14185,7 @@
         <v>205</v>
       </c>
       <c r="G92" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H92" s="7" t="n">
         <v>0.2</v>
@@ -14194,7 +14194,7 @@
         <v>0.28</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -14217,7 +14217,7 @@
         <v>11</v>
       </c>
       <c r="G93" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H93" s="7" t="n">
         <v>0.2</v>
@@ -14226,7 +14226,7 @@
         <v>0.28</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -14249,7 +14249,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H94" s="7" t="n">
         <v>0.2</v>
@@ -14258,7 +14258,7 @@
         <v>0.28</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -14281,7 +14281,7 @@
         <v>205</v>
       </c>
       <c r="G95" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H95" s="7" t="n">
         <v>0.2</v>
@@ -14290,7 +14290,7 @@
         <v>0.28</v>
       </c>
       <c r="J95" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -14313,7 +14313,7 @@
         <v>205</v>
       </c>
       <c r="G96" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H96" s="7" t="n">
         <v>0.2</v>
@@ -14322,7 +14322,7 @@
         <v>0.28</v>
       </c>
       <c r="J96" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -14345,7 +14345,7 @@
         <v>205</v>
       </c>
       <c r="G97" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H97" s="7" t="n">
         <v>0.15</v>
@@ -14354,7 +14354,7 @@
         <v>0.2</v>
       </c>
       <c r="J97" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -14377,7 +14377,7 @@
         <v>205</v>
       </c>
       <c r="G98" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H98" s="7" t="n">
         <v>1</v>
@@ -14386,7 +14386,7 @@
         <v>1.2</v>
       </c>
       <c r="J98" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -14409,7 +14409,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H99" s="7" t="n">
         <v>1</v>
@@ -14418,7 +14418,7 @@
         <v>1.2</v>
       </c>
       <c r="J99" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -14441,7 +14441,7 @@
         <v>11</v>
       </c>
       <c r="G100" s="7" t="n">
-        <v>0.3794627669248015</v>
+        <v>1.175288095505356</v>
       </c>
       <c r="H100" s="7" t="n">
         <v>0.45</v>
@@ -14450,7 +14450,7 @@
         <v>0.9</v>
       </c>
       <c r="J100" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -14473,7 +14473,7 @@
         <v>205</v>
       </c>
       <c r="G101" s="7" t="n">
-        <v>0.11</v>
+        <v>0.8324957343162942</v>
       </c>
       <c r="H101" s="7" t="n">
         <v>0.3</v>
@@ -14482,7 +14482,7 @@
         <v>0.4</v>
       </c>
       <c r="J101" s="7" t="n">
-        <v>1.420230037548301</v>
+        <v>1.921530936990364</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -14505,7 +14505,7 @@
         <v>205</v>
       </c>
       <c r="G102" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H102" s="7" t="n">
         <v>0.2</v>
@@ -14514,7 +14514,7 @@
         <v>0.28</v>
       </c>
       <c r="J102" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -14537,7 +14537,7 @@
         <v>205</v>
       </c>
       <c r="G103" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H103" s="7" t="n">
         <v>0.09</v>
@@ -14546,7 +14546,7 @@
         <v>0.15</v>
       </c>
       <c r="J103" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -14569,7 +14569,7 @@
         <v>205</v>
       </c>
       <c r="G104" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H104" s="7" t="n">
         <v>0.2</v>
@@ -14578,7 +14578,7 @@
         <v>0.28</v>
       </c>
       <c r="J104" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -14601,7 +14601,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H105" s="7" t="n">
         <v>0.2</v>
@@ -14610,7 +14610,7 @@
         <v>0.28</v>
       </c>
       <c r="J105" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -14633,7 +14633,7 @@
         <v>11</v>
       </c>
       <c r="G106" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H106" s="7" t="n">
         <v>0.2</v>
@@ -14642,7 +14642,7 @@
         <v>0.28</v>
       </c>
       <c r="J106" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -14665,7 +14665,7 @@
         <v>205</v>
       </c>
       <c r="G107" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H107" s="7" t="n">
         <v>0.2</v>
@@ -14674,7 +14674,7 @@
         <v>0.28</v>
       </c>
       <c r="J107" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -14697,7 +14697,7 @@
         <v>205</v>
       </c>
       <c r="G108" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H108" s="7" t="n">
         <v>0.2</v>
@@ -14706,7 +14706,7 @@
         <v>0.28</v>
       </c>
       <c r="J108" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -14729,7 +14729,7 @@
         <v>205</v>
       </c>
       <c r="G109" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H109" s="7" t="n">
         <v>0.15</v>
@@ -14738,7 +14738,7 @@
         <v>0.2</v>
       </c>
       <c r="J109" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -14761,7 +14761,7 @@
         <v>205</v>
       </c>
       <c r="G110" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H110" s="7" t="n">
         <v>1</v>
@@ -14770,7 +14770,7 @@
         <v>1.2</v>
       </c>
       <c r="J110" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -14793,7 +14793,7 @@
         <v>11</v>
       </c>
       <c r="G111" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H111" s="7" t="n">
         <v>1</v>
@@ -14802,7 +14802,7 @@
         <v>1.2</v>
       </c>
       <c r="J111" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -14825,7 +14825,7 @@
         <v>11</v>
       </c>
       <c r="G112" s="7" t="n">
-        <v>0.3794627669248015</v>
+        <v>1.175288095505356</v>
       </c>
       <c r="H112" s="7" t="n">
         <v>0.45</v>
@@ -14834,7 +14834,7 @@
         <v>0.9</v>
       </c>
       <c r="J112" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -14857,7 +14857,7 @@
         <v>205</v>
       </c>
       <c r="G113" s="7" t="n">
-        <v>0.11</v>
+        <v>0.8324957343162942</v>
       </c>
       <c r="H113" s="7" t="n">
         <v>0.3</v>
@@ -14866,7 +14866,7 @@
         <v>0.4</v>
       </c>
       <c r="J113" s="7" t="n">
-        <v>1.420230037548301</v>
+        <v>1.921530936990364</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -14889,7 +14889,7 @@
         <v>205</v>
       </c>
       <c r="G114" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H114" s="7" t="n">
         <v>0.2</v>
@@ -14898,7 +14898,7 @@
         <v>0.28</v>
       </c>
       <c r="J114" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -14921,7 +14921,7 @@
         <v>205</v>
       </c>
       <c r="G115" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H115" s="7" t="n">
         <v>0.09</v>
@@ -14930,7 +14930,7 @@
         <v>0.15</v>
       </c>
       <c r="J115" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -14953,7 +14953,7 @@
         <v>205</v>
       </c>
       <c r="G116" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H116" s="7" t="n">
         <v>0.2</v>
@@ -14962,7 +14962,7 @@
         <v>0.28</v>
       </c>
       <c r="J116" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -14985,7 +14985,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H117" s="7" t="n">
         <v>0.2</v>
@@ -14994,7 +14994,7 @@
         <v>0.28</v>
       </c>
       <c r="J117" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -15017,7 +15017,7 @@
         <v>11</v>
       </c>
       <c r="G118" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H118" s="7" t="n">
         <v>0.2</v>
@@ -15026,7 +15026,7 @@
         <v>0.28</v>
       </c>
       <c r="J118" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -15049,7 +15049,7 @@
         <v>205</v>
       </c>
       <c r="G119" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H119" s="7" t="n">
         <v>0.2</v>
@@ -15058,7 +15058,7 @@
         <v>0.28</v>
       </c>
       <c r="J119" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -15081,7 +15081,7 @@
         <v>205</v>
       </c>
       <c r="G120" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H120" s="7" t="n">
         <v>0.2</v>
@@ -15090,7 +15090,7 @@
         <v>0.28</v>
       </c>
       <c r="J120" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -15113,7 +15113,7 @@
         <v>205</v>
       </c>
       <c r="G121" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H121" s="7" t="n">
         <v>0.15</v>
@@ -15122,7 +15122,7 @@
         <v>0.2</v>
       </c>
       <c r="J121" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -15145,7 +15145,7 @@
         <v>205</v>
       </c>
       <c r="G122" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H122" s="7" t="n">
         <v>1</v>
@@ -15154,7 +15154,7 @@
         <v>1.2</v>
       </c>
       <c r="J122" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -15177,7 +15177,7 @@
         <v>11</v>
       </c>
       <c r="G123" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H123" s="7" t="n">
         <v>1</v>
@@ -15186,7 +15186,7 @@
         <v>1.2</v>
       </c>
       <c r="J123" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -15209,7 +15209,7 @@
         <v>11</v>
       </c>
       <c r="G124" s="7" t="n">
-        <v>0.3794627669248015</v>
+        <v>1.175288095505356</v>
       </c>
       <c r="H124" s="7" t="n">
         <v>0.45</v>
@@ -15218,7 +15218,7 @@
         <v>0.9</v>
       </c>
       <c r="J124" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -15241,7 +15241,7 @@
         <v>205</v>
       </c>
       <c r="G125" s="7" t="n">
-        <v>0.11</v>
+        <v>0.8324957343162942</v>
       </c>
       <c r="H125" s="7" t="n">
         <v>0.3</v>
@@ -15250,7 +15250,7 @@
         <v>0.4</v>
       </c>
       <c r="J125" s="7" t="n">
-        <v>1.420230037548301</v>
+        <v>1.921530936990364</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -15273,7 +15273,7 @@
         <v>205</v>
       </c>
       <c r="G126" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H126" s="7" t="n">
         <v>0.2</v>
@@ -15282,7 +15282,7 @@
         <v>0.28</v>
       </c>
       <c r="J126" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -15305,7 +15305,7 @@
         <v>205</v>
       </c>
       <c r="G127" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H127" s="7" t="n">
         <v>0.09</v>
@@ -15314,7 +15314,7 @@
         <v>0.15</v>
       </c>
       <c r="J127" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -15337,7 +15337,7 @@
         <v>205</v>
       </c>
       <c r="G128" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H128" s="7" t="n">
         <v>0.2</v>
@@ -15346,7 +15346,7 @@
         <v>0.28</v>
       </c>
       <c r="J128" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -15369,7 +15369,7 @@
         <v>11</v>
       </c>
       <c r="G129" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H129" s="7" t="n">
         <v>0.2</v>
@@ -15378,7 +15378,7 @@
         <v>0.28</v>
       </c>
       <c r="J129" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -15401,7 +15401,7 @@
         <v>11</v>
       </c>
       <c r="G130" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H130" s="7" t="n">
         <v>0.2</v>
@@ -15410,7 +15410,7 @@
         <v>0.28</v>
       </c>
       <c r="J130" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -15433,7 +15433,7 @@
         <v>205</v>
       </c>
       <c r="G131" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H131" s="7" t="n">
         <v>0.2</v>
@@ -15442,7 +15442,7 @@
         <v>0.28</v>
       </c>
       <c r="J131" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -15465,7 +15465,7 @@
         <v>205</v>
       </c>
       <c r="G132" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H132" s="7" t="n">
         <v>0.2</v>
@@ -15474,7 +15474,7 @@
         <v>0.28</v>
       </c>
       <c r="J132" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -15497,7 +15497,7 @@
         <v>205</v>
       </c>
       <c r="G133" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H133" s="7" t="n">
         <v>0.15</v>
@@ -15506,7 +15506,7 @@
         <v>0.2</v>
       </c>
       <c r="J133" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -15529,7 +15529,7 @@
         <v>205</v>
       </c>
       <c r="G134" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H134" s="7" t="n">
         <v>1</v>
@@ -15538,7 +15538,7 @@
         <v>1.2</v>
       </c>
       <c r="J134" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -15561,7 +15561,7 @@
         <v>11</v>
       </c>
       <c r="G135" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H135" s="7" t="n">
         <v>1</v>
@@ -15570,7 +15570,7 @@
         <v>1.2</v>
       </c>
       <c r="J135" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -15593,7 +15593,7 @@
         <v>11</v>
       </c>
       <c r="G136" s="7" t="n">
-        <v>0.3794627669248015</v>
+        <v>1.175288095505356</v>
       </c>
       <c r="H136" s="7" t="n">
         <v>0.45</v>
@@ -15602,7 +15602,7 @@
         <v>0.9</v>
       </c>
       <c r="J136" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -15625,7 +15625,7 @@
         <v>205</v>
       </c>
       <c r="G137" s="7" t="n">
-        <v>0.11</v>
+        <v>0.8324957343162942</v>
       </c>
       <c r="H137" s="7" t="n">
         <v>0.3</v>
@@ -15634,7 +15634,7 @@
         <v>0.4</v>
       </c>
       <c r="J137" s="7" t="n">
-        <v>1.420230037548301</v>
+        <v>1.921530936990364</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -15657,7 +15657,7 @@
         <v>205</v>
       </c>
       <c r="G138" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H138" s="7" t="n">
         <v>0.2</v>
@@ -15666,7 +15666,7 @@
         <v>0.28</v>
       </c>
       <c r="J138" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -15689,7 +15689,7 @@
         <v>205</v>
       </c>
       <c r="G139" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H139" s="7" t="n">
         <v>0.09</v>
@@ -15698,7 +15698,7 @@
         <v>0.15</v>
       </c>
       <c r="J139" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -15721,7 +15721,7 @@
         <v>205</v>
       </c>
       <c r="G140" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H140" s="7" t="n">
         <v>0.2</v>
@@ -15730,7 +15730,7 @@
         <v>0.28</v>
       </c>
       <c r="J140" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -15753,7 +15753,7 @@
         <v>11</v>
       </c>
       <c r="G141" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H141" s="7" t="n">
         <v>0.2</v>
@@ -15762,7 +15762,7 @@
         <v>0.28</v>
       </c>
       <c r="J141" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -15785,7 +15785,7 @@
         <v>11</v>
       </c>
       <c r="G142" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H142" s="7" t="n">
         <v>0.2</v>
@@ -15794,7 +15794,7 @@
         <v>0.28</v>
       </c>
       <c r="J142" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -15817,7 +15817,7 @@
         <v>205</v>
       </c>
       <c r="G143" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H143" s="7" t="n">
         <v>0.2</v>
@@ -15826,7 +15826,7 @@
         <v>0.28</v>
       </c>
       <c r="J143" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -15849,7 +15849,7 @@
         <v>205</v>
       </c>
       <c r="G144" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H144" s="7" t="n">
         <v>0.2</v>
@@ -15858,7 +15858,7 @@
         <v>0.28</v>
       </c>
       <c r="J144" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -15881,7 +15881,7 @@
         <v>205</v>
       </c>
       <c r="G145" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H145" s="7" t="n">
         <v>0.15</v>
@@ -15890,7 +15890,7 @@
         <v>0.2</v>
       </c>
       <c r="J145" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -15913,7 +15913,7 @@
         <v>205</v>
       </c>
       <c r="G146" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H146" s="7" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>1.2</v>
       </c>
       <c r="J146" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -15945,7 +15945,7 @@
         <v>11</v>
       </c>
       <c r="G147" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H147" s="7" t="n">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>1.2</v>
       </c>
       <c r="J147" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -15977,7 +15977,7 @@
         <v>11</v>
       </c>
       <c r="G148" s="7" t="n">
-        <v>0.3794627669248015</v>
+        <v>1.175288095505356</v>
       </c>
       <c r="H148" s="7" t="n">
         <v>0.45</v>
@@ -15986,7 +15986,7 @@
         <v>0.9</v>
       </c>
       <c r="J148" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -16009,7 +16009,7 @@
         <v>205</v>
       </c>
       <c r="G149" s="7" t="n">
-        <v>0.11</v>
+        <v>0.8324957343162942</v>
       </c>
       <c r="H149" s="7" t="n">
         <v>0.3</v>
@@ -16018,7 +16018,7 @@
         <v>0.4</v>
       </c>
       <c r="J149" s="7" t="n">
-        <v>1.420230037548301</v>
+        <v>1.921530936990364</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -16041,7 +16041,7 @@
         <v>205</v>
       </c>
       <c r="G150" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H150" s="7" t="n">
         <v>0.2</v>
@@ -16050,7 +16050,7 @@
         <v>0.28</v>
       </c>
       <c r="J150" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -16073,7 +16073,7 @@
         <v>205</v>
       </c>
       <c r="G151" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H151" s="7" t="n">
         <v>0.09</v>
@@ -16082,7 +16082,7 @@
         <v>0.15</v>
       </c>
       <c r="J151" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -16105,7 +16105,7 @@
         <v>205</v>
       </c>
       <c r="G152" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H152" s="7" t="n">
         <v>0.2</v>
@@ -16114,7 +16114,7 @@
         <v>0.28</v>
       </c>
       <c r="J152" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -16137,7 +16137,7 @@
         <v>11</v>
       </c>
       <c r="G153" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H153" s="7" t="n">
         <v>0.2</v>
@@ -16146,7 +16146,7 @@
         <v>0.28</v>
       </c>
       <c r="J153" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -16169,7 +16169,7 @@
         <v>11</v>
       </c>
       <c r="G154" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H154" s="7" t="n">
         <v>0.2</v>
@@ -16178,7 +16178,7 @@
         <v>0.28</v>
       </c>
       <c r="J154" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -16201,7 +16201,7 @@
         <v>205</v>
       </c>
       <c r="G155" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H155" s="7" t="n">
         <v>0.2</v>
@@ -16210,7 +16210,7 @@
         <v>0.28</v>
       </c>
       <c r="J155" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -16233,7 +16233,7 @@
         <v>205</v>
       </c>
       <c r="G156" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H156" s="7" t="n">
         <v>0.2</v>
@@ -16242,7 +16242,7 @@
         <v>0.28</v>
       </c>
       <c r="J156" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -16265,7 +16265,7 @@
         <v>205</v>
       </c>
       <c r="G157" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H157" s="7" t="n">
         <v>0.15</v>
@@ -16274,7 +16274,7 @@
         <v>0.2</v>
       </c>
       <c r="J157" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -16297,7 +16297,7 @@
         <v>205</v>
       </c>
       <c r="G158" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H158" s="7" t="n">
         <v>1</v>
@@ -16306,7 +16306,7 @@
         <v>1.2</v>
       </c>
       <c r="J158" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -16329,7 +16329,7 @@
         <v>11</v>
       </c>
       <c r="G159" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H159" s="7" t="n">
         <v>0.4</v>
@@ -16338,7 +16338,7 @@
         <v>2</v>
       </c>
       <c r="J159" s="7" t="n">
-        <v>2.220230037548301</v>
+        <v>2.730596594670518</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -16361,7 +16361,7 @@
         <v>11</v>
       </c>
       <c r="G160" s="7" t="n">
-        <v>0.11</v>
+        <v>0.4897033731272319</v>
       </c>
       <c r="H160" s="7" t="n">
         <v>0.4</v>
@@ -16370,7 +16370,7 @@
         <v>1.79</v>
       </c>
       <c r="J160" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -16393,7 +16393,7 @@
         <v>205</v>
       </c>
       <c r="G161" s="7" t="n">
-        <v>0.11</v>
+        <v>0.2644398214887053</v>
       </c>
       <c r="H161" s="7" t="n">
         <v>0.27</v>
@@ -16402,7 +16402,7 @@
         <v>0.4</v>
       </c>
       <c r="J161" s="7" t="n">
-        <v>2.620230037548301</v>
+        <v>3.135129423510594</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -16425,7 +16425,7 @@
         <v>205</v>
       </c>
       <c r="G162" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H162" s="7" t="n">
         <v>0.2</v>
@@ -16434,7 +16434,7 @@
         <v>0.28</v>
       </c>
       <c r="J162" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -16457,7 +16457,7 @@
         <v>205</v>
       </c>
       <c r="G163" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H163" s="7" t="n">
         <v>0.09</v>
@@ -16466,7 +16466,7 @@
         <v>0.15</v>
       </c>
       <c r="J163" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -16489,7 +16489,7 @@
         <v>205</v>
       </c>
       <c r="G164" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H164" s="7" t="n">
         <v>0.2</v>
@@ -16498,7 +16498,7 @@
         <v>0.28</v>
       </c>
       <c r="J164" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -16521,7 +16521,7 @@
         <v>11</v>
       </c>
       <c r="G165" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H165" s="7" t="n">
         <v>0.2</v>
@@ -16530,7 +16530,7 @@
         <v>0.28</v>
       </c>
       <c r="J165" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -16553,7 +16553,7 @@
         <v>11</v>
       </c>
       <c r="G166" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H166" s="7" t="n">
         <v>0.2</v>
@@ -16562,7 +16562,7 @@
         <v>0.28</v>
       </c>
       <c r="J166" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -16585,7 +16585,7 @@
         <v>205</v>
       </c>
       <c r="G167" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H167" s="7" t="n">
         <v>0.2</v>
@@ -16594,7 +16594,7 @@
         <v>0.28</v>
       </c>
       <c r="J167" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -16617,7 +16617,7 @@
         <v>205</v>
       </c>
       <c r="G168" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H168" s="7" t="n">
         <v>0.2</v>
@@ -16626,7 +16626,7 @@
         <v>0.28</v>
       </c>
       <c r="J168" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -16649,7 +16649,7 @@
         <v>205</v>
       </c>
       <c r="G169" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H169" s="7" t="n">
         <v>0.15</v>
@@ -16658,7 +16658,7 @@
         <v>0.2</v>
       </c>
       <c r="J169" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -16681,7 +16681,7 @@
         <v>205</v>
       </c>
       <c r="G170" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H170" s="7" t="n">
         <v>1</v>
@@ -16690,7 +16690,7 @@
         <v>1.2</v>
       </c>
       <c r="J170" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -16713,7 +16713,7 @@
         <v>11</v>
       </c>
       <c r="G171" s="7" t="n">
-        <v>0.6794627669248016</v>
+        <v>1.469110119381696</v>
       </c>
       <c r="H171" s="7" t="n">
         <v>1</v>
@@ -16722,7 +16722,7 @@
         <v>1.2</v>
       </c>
       <c r="J171" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -16745,7 +16745,7 @@
         <v>11</v>
       </c>
       <c r="G172" s="7" t="n">
-        <v>0.3794627669248015</v>
+        <v>1.175288095505356</v>
       </c>
       <c r="H172" s="7" t="n">
         <v>0.45</v>
@@ -16754,7 +16754,7 @@
         <v>0.9</v>
       </c>
       <c r="J172" s="7" t="n">
-        <v>2.420230037548301</v>
+        <v>2.932863009090556</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -16777,7 +16777,7 @@
         <v>205</v>
       </c>
       <c r="G173" s="7" t="n">
-        <v>0.11</v>
+        <v>0.8324957343162942</v>
       </c>
       <c r="H173" s="7" t="n">
         <v>0.3</v>
@@ -16786,7 +16786,7 @@
         <v>0.4</v>
       </c>
       <c r="J173" s="7" t="n">
-        <v>1.420230037548301</v>
+        <v>1.921530936990364</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -16809,7 +16809,7 @@
         <v>205</v>
       </c>
       <c r="G174" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H174" s="7" t="n">
         <v>0.2</v>
@@ -16818,7 +16818,7 @@
         <v>0.28</v>
       </c>
       <c r="J174" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -16841,7 +16841,7 @@
         <v>205</v>
       </c>
       <c r="G175" s="7" t="n">
-        <v>0.11</v>
+        <v>0.107734742087991</v>
       </c>
       <c r="H175" s="7" t="n">
         <v>0.09</v>
@@ -16850,7 +16850,7 @@
         <v>0.15</v>
       </c>
       <c r="J175" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -16873,7 +16873,7 @@
         <v>205</v>
       </c>
       <c r="G176" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H176" s="7" t="n">
         <v>0.2</v>
@@ -16882,7 +16882,7 @@
         <v>0.28</v>
       </c>
       <c r="J176" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -16905,7 +16905,7 @@
         <v>11</v>
       </c>
       <c r="G177" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H177" s="7" t="n">
         <v>0.2</v>
@@ -16914,7 +16914,7 @@
         <v>0.28</v>
       </c>
       <c r="J177" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -16937,7 +16937,7 @@
         <v>11</v>
       </c>
       <c r="G178" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H178" s="7" t="n">
         <v>0.2</v>
@@ -16946,7 +16946,7 @@
         <v>0.28</v>
       </c>
       <c r="J178" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -16969,7 +16969,7 @@
         <v>205</v>
       </c>
       <c r="G179" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H179" s="7" t="n">
         <v>0.2</v>
@@ -16978,7 +16978,7 @@
         <v>0.28</v>
       </c>
       <c r="J179" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -17001,7 +17001,7 @@
         <v>205</v>
       </c>
       <c r="G180" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1958813492508928</v>
       </c>
       <c r="H180" s="7" t="n">
         <v>0.2</v>
@@ -17010,7 +17010,7 @@
         <v>0.28</v>
       </c>
       <c r="J180" s="7" t="n">
-        <v>0.9</v>
+        <v>1.314731693730249</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -17033,7 +17033,7 @@
         <v>205</v>
       </c>
       <c r="G181" s="7" t="n">
-        <v>0.11</v>
+        <v>0.1469110119381696</v>
       </c>
       <c r="H181" s="7" t="n">
         <v>0.15</v>
@@ -17042,7 +17042,7 @@
         <v>0.2</v>
       </c>
       <c r="J181" s="7" t="n">
-        <v>0.9</v>
+        <v>0.9101988648901725</v>
       </c>
     </row>
   </sheetData>
@@ -17098,10 +17098,10 @@
         <v>230</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>24.72384266073963</v>
+        <v>26.50801337857889</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>21.86270065109928</v>
+        <v>21.69797795359773</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>28</v>
@@ -17118,10 +17118,10 @@
         <v>231</v>
       </c>
       <c r="B3" s="11" t="n">
-        <v>24.72384266073963</v>
+        <v>26.50801337857889</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>21.86270065109928</v>
+        <v>21.69797795359773</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>28</v>
@@ -17138,10 +17138,10 @@
         <v>232</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>24.72384266073963</v>
+        <v>26.50801337857889</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>20.86270065109928</v>
+        <v>20.69797795359773</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>28</v>
@@ -17158,10 +17158,10 @@
         <v>233</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>22.72384266073963</v>
+        <v>24.50801337857889</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>21.86270065109928</v>
+        <v>21.69797795359773</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>28</v>
@@ -17178,10 +17178,10 @@
         <v>234</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>24.72384266073963</v>
+        <v>26.50801337857889</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>19.86270065109928</v>
+        <v>19.69797795359773</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>28</v>
@@ -17198,10 +17198,10 @@
         <v>235</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>20.72384266073963</v>
+        <v>22.50801337857889</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>21.86270065109928</v>
+        <v>21.69797795359773</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>28</v>
@@ -17218,10 +17218,10 @@
         <v>236</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>25.72384266073963</v>
+        <v>27.50801337857889</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>20.86270065109928</v>
+        <v>20.69797795359773</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>28</v>
@@ -17236,10 +17236,10 @@
         <v>237</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>22.72384266073963</v>
+        <v>24.50801337857889</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>20.86270065109928</v>
+        <v>20.69797795359773</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>28</v>
@@ -17256,10 +17256,10 @@
         <v>238</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>24.72384266073963</v>
+        <v>26.50801337857889</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>20.86270065109928</v>
+        <v>20.69797795359773</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>28</v>
@@ -17276,10 +17276,10 @@
         <v>239</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>24.72384266073963</v>
+        <v>26.50801337857889</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v>21.86270065109928</v>
+        <v>21.69797795359773</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>28</v>
@@ -17296,10 +17296,10 @@
         <v>240</v>
       </c>
       <c r="B12" s="15" t="n">
-        <v>20.72384266073963</v>
+        <v>22.50801337857889</v>
       </c>
       <c r="C12" s="15" t="n">
-        <v>17.86270065109928</v>
+        <v>17.69797795359773</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>28</v>
@@ -17316,10 +17316,10 @@
         <v>241</v>
       </c>
       <c r="B13" s="15" t="n">
-        <v>22.72384266073963</v>
+        <v>24.50801337857889</v>
       </c>
       <c r="C13" s="15" t="n">
-        <v>23.86270065109928</v>
+        <v>23.69797795359773</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>28</v>
@@ -17336,10 +17336,10 @@
         <v>242</v>
       </c>
       <c r="B14" s="15" t="n">
-        <v>24.72384266073963</v>
+        <v>26.50801337857889</v>
       </c>
       <c r="C14" s="15" t="n">
-        <v>25.86270065109928</v>
+        <v>25.69797795359773</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>28</v>
@@ -17356,10 +17356,10 @@
         <v>243</v>
       </c>
       <c r="B15" s="15" t="n">
-        <v>26.72384266073963</v>
+        <v>28.50801337857889</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>17.86270065109928</v>
+        <v>17.69797795359773</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>28</v>
